--- a/server/LISTAS/mi/LLANAS DISMAY.xlsx
+++ b/server/LISTAS/mi/LLANAS DISMAY.xlsx
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -874,14 +874,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/LLANAS DISMAY.xlsx
+++ b/server/LISTAS/mi/LLANAS DISMAY.xlsx
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45302</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -874,14 +874,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/LLANAS DISMAY.xlsx
+++ b/server/LISTAS/mi/LLANAS DISMAY.xlsx
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>

--- a/server/LISTAS/mi/LLANAS DISMAY.xlsx
+++ b/server/LISTAS/mi/LLANAS DISMAY.xlsx
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C26" s="30" t="n"/>
       <c r="D26" s="21" t="n">
-        <v>281</v>
+        <v>562</v>
       </c>
       <c r="E26" s="34" t="n"/>
     </row>
@@ -874,14 +874,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/LLANAS DISMAY.xlsx
+++ b/server/LISTAS/mi/LLANAS DISMAY.xlsx
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>

--- a/server/LISTAS/mi/LLANAS DISMAY.xlsx
+++ b/server/LISTAS/mi/LLANAS DISMAY.xlsx
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C26" s="30" t="n"/>
       <c r="D26" s="21" t="n">
-        <v>562</v>
+        <v>281</v>
       </c>
       <c r="E26" s="34" t="n"/>
     </row>
@@ -874,14 +874,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/LLANAS DISMAY.xlsx
+++ b/server/LISTAS/mi/LLANAS DISMAY.xlsx
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -874,14 +874,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/LLANAS DISMAY.xlsx
+++ b/server/LISTAS/mi/LLANAS DISMAY.xlsx
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -874,14 +874,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/LLANAS DISMAY.xlsx
+++ b/server/LISTAS/mi/LLANAS DISMAY.xlsx
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -874,14 +874,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/LLANAS DISMAY.xlsx
+++ b/server/LISTAS/mi/LLANAS DISMAY.xlsx
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C26" s="30" t="n"/>
       <c r="D26" s="21" t="n">
-        <v>281</v>
+        <v>562</v>
       </c>
       <c r="E26" s="34" t="n"/>
     </row>
@@ -874,14 +874,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
